--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail3 Features.xlsx
@@ -671,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,29 +682,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -725,115 +723,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -850,72 +838,66 @@
         <v>9.986947999523723e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.9000689754808476</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.158759067708778</v>
+        <v>6.798983184032588e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.02382051835486857</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.798983184032588e-06</v>
+        <v>0.1777390091675978</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02382051835486857</v>
+        <v>0.03215644307553655</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1777390091675978</v>
+        <v>1.90910670878972</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03215644307553655</v>
+        <v>2.063164988423631</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.910164138781431</v>
+        <v>5.336479219328697</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.063164988423631</v>
+        <v>2.076498479693336e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.336479219328697</v>
+        <v>240018971.0689921</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.076498479693336e-15</v>
+        <v>5.00457868955334e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>240018971.0689921</v>
+        <v>119.6252220077127</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.00457868955334e-07</v>
+        <v>0.0002392631122484327</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>119.6252220077127</v>
+        <v>9.475372430000711</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002392631122484327</v>
+        <v>1.861419204462746</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.475372430000711</v>
+        <v>0.02148168408575715</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.861419204462746</v>
+        <v>3.291409308263703</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02148168408575715</v>
+        <v>0.9634619372855358</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.291409308263703</v>
+        <v>1.423509018237769</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9634619372855358</v>
+        <v>157</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.423509018237769</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.451377049800994</v>
       </c>
     </row>
@@ -930,72 +912,66 @@
         <v>9.878708666060598e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.8817810491874137</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.1588577294614439</v>
+        <v>6.801506673829199e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.02640473556977397</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.801506673829199e-06</v>
+        <v>0.1797669945360008</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02640473556977397</v>
+        <v>0.03301340228891016</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1797669945360008</v>
+        <v>1.909595987674314</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03301340228891016</v>
+        <v>2.109334582736405</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.909963132973698</v>
+        <v>4.11994844050156</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.109334582736405</v>
+        <v>3.483835983645606e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.11994844050156</v>
+        <v>141249078.0643356</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.483835983645606e-15</v>
+        <v>8.505276535857422e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>141249078.0643356</v>
+        <v>69.50706401639398</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.505276535857422e-07</v>
+        <v>0.0002039551848119681</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>69.50706401639398</v>
+        <v>9.330715608754684</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002039551848119681</v>
+        <v>1.738682889418166</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.330715608754684</v>
+        <v>0.01775679805810424</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.738682889418166</v>
+        <v>3.016592860257216</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01775679805810424</v>
+        <v>0.9625232724949202</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.016592860257216</v>
+        <v>1.419175008827841</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9625232724949202</v>
+        <v>140</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.419175008827841</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.4997450477769078</v>
       </c>
     </row>
@@ -1010,72 +986,66 @@
         <v>9.763507272854552e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.8655980731048131</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1562312365807288</v>
+        <v>6.804094927457607e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.02588237004282832</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.804094927457607e-06</v>
+        <v>0.1820435447366474</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02588237004282832</v>
+        <v>0.03380937802036499</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1820435447366474</v>
+        <v>1.902666709684632</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03380937802036499</v>
+        <v>2.095599112203003</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.902356353610528</v>
+        <v>3.71628558395814</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.095599112203003</v>
+        <v>4.281767696409248e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.71628558395814</v>
+        <v>115992754.6379662</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.281767696409248e-15</v>
+        <v>1.034654605341824e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>115992754.6379662</v>
+        <v>57.60826902160704</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.034654605341824e-06</v>
+        <v>0.0001644310833282997</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>57.60826902160704</v>
+        <v>9.98861399018265</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001644310833282997</v>
+        <v>1.235614982158583</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.98861399018265</v>
+        <v>0.01640568537129507</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.235614982158583</v>
+        <v>2.877498107635319</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01640568537129507</v>
+        <v>0.9634408459175672</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.877498107635319</v>
+        <v>1.413732027184375</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9634408459175672</v>
+        <v>79</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.413732027184375</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3244214970132655</v>
       </c>
     </row>
@@ -1090,72 +1060,66 @@
         <v>9.643839104123401e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.8550044761588633</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.1408906063029942</v>
+        <v>6.806510693647e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.02372991216539299</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.806510693647e-06</v>
+        <v>0.1852256103929334</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02372991216539299</v>
+        <v>0.03487020213031512</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1852256103929334</v>
+        <v>1.897730312917484</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03487020213031512</v>
+        <v>2.079636878458785</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.89382324140147</v>
+        <v>3.578763943990835</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.079636878458785</v>
+        <v>4.617162463595969e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.578763943990835</v>
+        <v>108898188.7525573</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.617162463595969e-15</v>
+        <v>1.102284353572795e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>108898188.7525573</v>
+        <v>54.75407785204623</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.102284353572795e-06</v>
+        <v>0.0001645992977251588</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>54.75407785204623</v>
+        <v>10.80675540548758</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001645992977251588</v>
+        <v>1.103149984985095</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.80675540548758</v>
+        <v>0.01922288739421496</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.103149984985095</v>
+        <v>2.63707313931846</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01922288739421496</v>
+        <v>0.9637038554717658</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.63707313931846</v>
+        <v>1.421316214802499</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9637038554717658</v>
+        <v>37</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.421316214802499</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2925627178314784</v>
       </c>
     </row>
@@ -1170,72 +1134,66 @@
         <v>9.516819049768899e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8555200712635146</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.1077311841457025</v>
+        <v>6.808659373102956e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.02104849856865285</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.808659373102956e-06</v>
+        <v>0.1894735182317102</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02104849856865285</v>
+        <v>0.03634073805524991</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1894735182317102</v>
+        <v>1.899520005623325</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03634073805524991</v>
+        <v>2.100584821171624</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.892785273023056</v>
+        <v>3.548164094709237</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.100584821171624</v>
+        <v>4.697143941320496e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.548164094709237</v>
+        <v>109189551.7477805</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.697143941320496e-15</v>
+        <v>1.103358570375807e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>109189551.7477805</v>
+        <v>56.00103263649348</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.103358570375807e-06</v>
+        <v>0.0001678504525010992</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>56.00103263649348</v>
+        <v>10.77376889144588</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001678504525010992</v>
+        <v>1.116804619222328</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.77376889144588</v>
+        <v>0.01948308955845337</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.116804619222328</v>
+        <v>2.583706939902727</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01948308955845337</v>
+        <v>0.9634204520592766</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.583706939902727</v>
+        <v>1.420731008005586</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9634204520592766</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.420731008005586</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2871925995965752</v>
       </c>
     </row>
@@ -1250,72 +1208,66 @@
         <v>9.381892130613086e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8715278796073195</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.0593162233206308</v>
+        <v>6.810520101497825e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.01830151220100848</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.810520101497825e-06</v>
+        <v>0.1943704740108367</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01830151220100848</v>
+        <v>0.03811184969839541</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1943704740108367</v>
+        <v>1.89269764901156</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03811184969839541</v>
+        <v>2.048203095219974</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.887698738959408</v>
+        <v>3.558151029657014</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.048203095219974</v>
+        <v>4.670813278261075e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.558151029657014</v>
+        <v>107769584.1227205</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.670813278261075e-15</v>
+        <v>1.115562248830503e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>107769584.1227205</v>
+        <v>54.24814847756087</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.115562248830503e-06</v>
+        <v>0.0001714814982268923</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>54.24814847756087</v>
+        <v>9.514478392411744</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001714814982268923</v>
+        <v>1.265455648148739</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.514478392411744</v>
+        <v>0.01552341391361932</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.265455648148739</v>
+        <v>2.781012154049993</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01552341391361932</v>
+        <v>0.9630423137331446</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.781012154049993</v>
+        <v>1.423009750115707</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9630423137331446</v>
+        <v>23</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.423009750115707</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2722032497908293</v>
       </c>
     </row>
@@ -1330,72 +1282,66 @@
         <v>9.243469037399451e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9038044963900347</v>
+        <v>3.554475991475002e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.004377628904908004</v>
+        <v>6.812100771243896e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.554475991475002e-07</v>
+        <v>0.01559631878485188</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.812100771243896e-06</v>
+        <v>0.1993677401373032</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01559631878485188</v>
+        <v>0.03998802819953005</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1993677401373032</v>
+        <v>1.895066877344685</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03998802819953005</v>
+        <v>2.053343414301798</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.890627935238687</v>
+        <v>3.562980573055077</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.053343414301798</v>
+        <v>4.658159486527559e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.562980573055077</v>
+        <v>109229116.7322786</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.658159486527559e-15</v>
+        <v>1.10155555065549e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>109229116.7322786</v>
+        <v>55.57650056411685</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.10155555065549e-06</v>
+        <v>0.0002006647228135227</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>55.57650056411685</v>
+        <v>9.068246305375077</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002006647228135227</v>
+        <v>1.606841390914336</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.068246305375077</v>
+        <v>0.01650128042264046</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.606841390914336</v>
+        <v>2.792873978400378</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01650128042264046</v>
+        <v>0.9636696601451584</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.792873978400378</v>
+        <v>1.434510932732468</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9636696601451584</v>
+        <v>28</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.434510932732468</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2445489974412333</v>
       </c>
     </row>
@@ -1410,72 +1356,66 @@
         <v>9.111122068248066e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9480331475886429</v>
+        <v>3.551230483943141e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.047017428813799</v>
+        <v>6.813401962494814e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.551230483943141e-07</v>
+        <v>0.01265685847318968</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.813401962494814e-06</v>
+        <v>0.2040402565997766</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01265685847318968</v>
+        <v>0.04179047112201324</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2040402565997766</v>
+        <v>1.896905008385347</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04179047112201324</v>
+        <v>2.044564451212027</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.892686416053095</v>
+        <v>3.555676493686057</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.044564451212027</v>
+        <v>4.67731674805604e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.555676493686057</v>
+        <v>108660804.8041707</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.67731674805604e-15</v>
+        <v>1.108885503685269e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>108660804.8041707</v>
+        <v>55.22587633003098</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.108885503685269e-06</v>
+        <v>0.0001878837156015645</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>55.22587633003098</v>
+        <v>9.917636252041854</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001878837156015645</v>
+        <v>1.348472300450276</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.917636252041854</v>
+        <v>0.01848014998331473</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.348472300450276</v>
+        <v>2.757691118377121</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01848014998331473</v>
+        <v>0.9618890262481788</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.757691118377121</v>
+        <v>1.443321222539073</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9618890262481788</v>
+        <v>26</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.443321222539073</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2322806818921725</v>
       </c>
     </row>
@@ -1490,72 +1430,66 @@
         <v>8.999586158080007e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.9937975795393545</v>
+        <v>3.500286161376366e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.08784552641737253</v>
+        <v>6.814394868194789e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.500286161376366e-07</v>
+        <v>0.009124414392114774</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.814394868194789e-06</v>
+        <v>0.2077176514374693</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.009124414392114774</v>
+        <v>0.04322788750671912</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2077176514374693</v>
+        <v>1.89576014684628</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04322788750671912</v>
+        <v>2.034418385964172</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.892060055868868</v>
+        <v>3.528335459510347</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.034418385964172</v>
+        <v>4.750086562201399e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.528335459510347</v>
+        <v>106573450.7590536</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.750086562201399e-15</v>
+        <v>1.130990732100884e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>106573450.7590536</v>
+        <v>53.95101009665151</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.130990732100884e-06</v>
+        <v>0.0001746990651015995</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>53.95101009665151</v>
+        <v>11.24294415450243</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001746990651015995</v>
+        <v>1.083563658846156</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.24294415450243</v>
+        <v>0.02208262450803805</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.083563658846156</v>
+        <v>2.569637171057301</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02208262450803805</v>
+        <v>0.9599072034181076</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.569637171057301</v>
+        <v>1.429071213805271</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9599072034181076</v>
+        <v>26</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.429071213805271</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2348746215244762</v>
       </c>
     </row>
@@ -1570,72 +1504,66 @@
         <v>8.926035593343217e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.026773507741326</v>
+        <v>3.371981393338801e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.1147666678205801</v>
+        <v>6.815023417166622e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.371981393338801e-07</v>
+        <v>0.004763655175981324</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.815023417166622e-06</v>
+        <v>0.2093388065008411</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.004763655175981324</v>
+        <v>0.04384240776143824</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2093388065008411</v>
+        <v>1.893762871222332</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04384240776143824</v>
+        <v>1.9996937568638</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.897259996942576</v>
+        <v>3.497960807108412</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.9996937568638</v>
+        <v>4.832939787737217e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.497960807108412</v>
+        <v>103662984.4395003</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.832939787737217e-15</v>
+        <v>1.157401806754085e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>103662984.4395003</v>
+        <v>51.93484027741599</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.157401806754085e-06</v>
+        <v>0.000175191438791749</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>51.93484027741599</v>
+        <v>11.27129971832087</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000175191438791749</v>
+        <v>1.075552221152918</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.27129971832087</v>
+        <v>0.02225670533929847</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.075552221152918</v>
+        <v>2.501160672602633</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02225670533929847</v>
+        <v>0.9596662874213757</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.501160672602633</v>
+        <v>1.432112545517105</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9596662874213757</v>
+        <v>26</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.432112545517105</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2332895543632974</v>
       </c>
     </row>
@@ -1650,72 +1578,66 @@
         <v>8.90326801811078e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.036850747158232</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1238425275439461</v>
+        <v>6.815220442450275e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.0004517996862846527</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.815220442450275e-06</v>
+        <v>0.2077531845006534</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0004517996862846527</v>
+        <v>0.0431560026926776</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2077531845006534</v>
+        <v>1.889498777435913</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0431560026926776</v>
+        <v>1.921034030682586</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.892195772982814</v>
+        <v>3.468674213210253</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.921034030682586</v>
+        <v>4.914894944381929e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.468674213210253</v>
+        <v>92462469.00329652</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.914894944381929e-15</v>
+        <v>1.287391725968636e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>92462469.00329652</v>
+        <v>42.01895152326776</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.287391725968636e-06</v>
+        <v>0.0001768153271700076</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>42.01895152326776</v>
+        <v>10.35431944860363</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001768153271700076</v>
+        <v>1.170060573826512</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.35431944860363</v>
+        <v>0.01895671269938872</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.170060573826512</v>
+        <v>2.662935734917074</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01895671269938872</v>
+        <v>0.9610073796994958</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.662935734917074</v>
+        <v>1.466345812567446</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9610073796994958</v>
+        <v>26</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.466345812567446</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2365465142441041</v>
       </c>
     </row>
@@ -1730,72 +1652,66 @@
         <v>8.931031791023314e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.027292529381521</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.1104732695355581</v>
+        <v>6.814938982739527e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.005629755080905128</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.814938982739527e-06</v>
+        <v>0.2033810509459129</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.005629755080905128</v>
+        <v>0.04139013608749551</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2033810509459129</v>
+        <v>1.887881082895695</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04139013608749551</v>
+        <v>1.915391396808015</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.891230599290945</v>
+        <v>3.44237829042863</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.915391396808015</v>
+        <v>4.990270349438908e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.44237829042863</v>
+        <v>92242866.90122716</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.990270349438908e-15</v>
+        <v>1.291087080109858e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>92242866.90122716</v>
+        <v>42.46094534068647</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.291087080109858e-06</v>
+        <v>0.0002033344694921752</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>42.46094534068647</v>
+        <v>9.714813796936147</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002033344694921752</v>
+        <v>1.428366497981842</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.714813796936147</v>
+        <v>0.01919022067347811</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.428366497981842</v>
+        <v>2.693398854988047</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01919022067347811</v>
+        <v>0.9599427479016249</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.693398854988047</v>
+        <v>1.450044527113904</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9599427479016249</v>
+        <v>26</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.450044527113904</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2630731011554967</v>
       </c>
     </row>
@@ -1810,72 +1726,66 @@
         <v>8.986613032944382e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.014121274631989</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.08270067557367788</v>
+        <v>6.814280558421513e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.008484389060744927</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.814280558421513e-06</v>
+        <v>0.1998469676294123</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.008484389060744927</v>
+        <v>0.04000799638192101</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1998469676294123</v>
+        <v>1.885670866003048</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04000799638192101</v>
+        <v>1.867978794490332</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.892912832646682</v>
+        <v>3.517264848537205</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.867978794490332</v>
+        <v>5.106645559607565e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.517264848537205</v>
+        <v>91666077.28441961</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.106645559607565e-15</v>
+        <v>1.296529371817513e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>91666077.28441961</v>
+        <v>42.90945603855553</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.296529371817513e-06</v>
+        <v>0.0002363035881358096</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>42.90945603855553</v>
+        <v>10.47198881737807</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002363035881358096</v>
+        <v>1.408749708429497</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.47198881737807</v>
+        <v>0.02591365399980401</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.408749708429497</v>
+        <v>2.556796407844042</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02591365399980401</v>
+        <v>0.960015117541506</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.556796407844042</v>
+        <v>1.446715264478619</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.960015117541506</v>
+        <v>26</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.446715264478619</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3537985215123381</v>
       </c>
     </row>
@@ -1890,72 +1800,66 @@
         <v>9.039578273029781e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.008783799912125</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.05770727579895407</v>
+        <v>6.81351758510968e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.00779368518623449</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.81351758510968e-06</v>
+        <v>0.1991398624609365</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.00779368518623449</v>
+        <v>0.03971428639796384</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1991398624609365</v>
+        <v>1.885966708227952</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03971428639796384</v>
+        <v>1.887921229274603</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.892889664540351</v>
+        <v>3.658086315055213</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.887921229274603</v>
+        <v>5.28620546687348e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.658086315055213</v>
+        <v>94935804.14210765</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.28620546687348e-15</v>
+        <v>1.262018655886912e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>94935804.14210765</v>
+        <v>47.64354914951888</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.262018655886912e-06</v>
+        <v>0.0002404179150265053</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>47.64354914951888</v>
+        <v>13.26774870686756</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002404179150265053</v>
+        <v>1.034593799594993</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.26774870686756</v>
+        <v>0.04232152428061109</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.034593799594993</v>
+        <v>2.28794523810459</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04232152428061109</v>
+        <v>0.9621770068615584</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.28794523810459</v>
+        <v>1.444711121829753</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9621770068615584</v>
+        <v>26</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.444711121829753</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.540952844035425</v>
       </c>
     </row>
@@ -1970,72 +1874,66 @@
         <v>9.069444721814658e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.010941231431551</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.04609665927267015</v>
+        <v>6.812976477480171e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.003541173913568581</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.812976477480171e-06</v>
+        <v>0.2016931713412442</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.003541173913568581</v>
+        <v>0.04068526775085671</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2016931713412442</v>
+        <v>1.906862920375209</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.04068526775085671</v>
+        <v>1.95270825417176</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.929599202606751</v>
+        <v>3.666255833149861</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.95270825417176</v>
+        <v>6.082094264402956e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.666255833149861</v>
+        <v>83768559.98316261</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.082094264402956e-15</v>
+        <v>1.435695347340171e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>83768559.98316261</v>
+        <v>42.67909939402703</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.435695347340171e-06</v>
+        <v>0.0002481092356614216</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>42.67909939402703</v>
+        <v>14.37407873587156</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002481092356614216</v>
+        <v>0.9486225024069488</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>14.37407873587156</v>
+        <v>0.05126287622943654</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.9486225024069488</v>
+        <v>2.122031612160352</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.05126287622943654</v>
+        <v>0.9627218613490043</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.122031612160352</v>
+        <v>1.23182696493188</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9627218613490043</v>
+        <v>23</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.23182696493188</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.640827372754657</v>
       </c>
     </row>
@@ -2050,72 +1948,66 @@
         <v>9.070621539378144e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.010428981475295</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.04493039999271264</v>
+        <v>6.812969721403094e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>0.003827687172570851</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.812969721403094e-06</v>
+        <v>0.2080752894346625</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.003827687172570851</v>
+        <v>0.04329728293860815</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2080752894346625</v>
+        <v>1.899257821705603</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04329728293860815</v>
+        <v>1.791106080170157</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.919063354528727</v>
+        <v>3.854659813680965</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.791106080170157</v>
+        <v>5.50112418498205e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.854659813680965</v>
+        <v>92617061.49188437</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.50112418498205e-15</v>
+        <v>1.297199956732166e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>92617061.49188437</v>
+        <v>47.18820360558367</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.297199956732166e-06</v>
+        <v>0.0002448388588392682</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>47.18820360558367</v>
+        <v>14.07800761699856</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002448388588392682</v>
+        <v>0.9818644510287966</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>14.07800761699856</v>
+        <v>0.04852468650900573</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.9818644510287966</v>
+        <v>2.293009395305201</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.04852468650900573</v>
+        <v>0.961843069242736</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.293009395305201</v>
+        <v>1.21416147813683</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.961843069242736</v>
+        <v>23</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.21416147813683</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.7473439983651518</v>
       </c>
     </row>
@@ -2130,72 +2022,66 @@
         <v>9.057406716035895e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.992761581515308</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.03072225403175777</v>
+        <v>6.813676176548471e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>0.01149571801391667</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.813676176548471e-06</v>
+        <v>0.214618108197855</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.01149571801391667</v>
+        <v>0.04618501713547573</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.214618108197855</v>
+        <v>1.876300443627352</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04618501713547573</v>
+        <v>1.84371428743027</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.87494125646069</v>
+        <v>4.235757745162963</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.84371428743027</v>
+        <v>4.770290468430694e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.235757745162963</v>
+        <v>107736253.3111176</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.770290468430694e-15</v>
+        <v>1.10851971271383e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>107736253.3111176</v>
+        <v>55.36923981996001</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.10851971271383e-06</v>
+        <v>0.0002404685890100873</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>55.36923981996001</v>
+        <v>12.0334533244493</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002404685890100873</v>
+        <v>1.236155547069849</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>12.0334533244493</v>
+        <v>0.03482081330131471</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.236155547069849</v>
+        <v>2.668438852536783</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03482081330131471</v>
+        <v>0.9621844654855523</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.668438852536783</v>
+        <v>1.466984969791705</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9621844654855523</v>
+        <v>28</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.466984969791705</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.8214022520341309</v>
       </c>
     </row>
@@ -2210,72 +2096,66 @@
         <v>9.050508126545623e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.9555541491754252</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.01541582700920596</v>
+        <v>6.814947340518515e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>0.01591078862665023</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.814947340518515e-06</v>
+        <v>0.2171878259123423</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01591078862665023</v>
+        <v>0.04742181990609988</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2171878259123423</v>
+        <v>1.875302781871004</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04742181990609988</v>
+        <v>1.893540862426858</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.875364516377239</v>
+        <v>4.109838689218503</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.893540862426858</v>
+        <v>6.012734373295919e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.109838689218503</v>
+        <v>84523861.89989156</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.012734373295919e-15</v>
+        <v>1.412356847656154e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>84523861.89989156</v>
+        <v>42.95667735242024</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.412356847656154e-06</v>
+        <v>0.0002395672454637518</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>42.95667735242024</v>
+        <v>9.737618235473912</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002395672454637518</v>
+        <v>1.742038210729408</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.737618235473912</v>
+        <v>0.02271605582767624</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.742038210729408</v>
+        <v>2.844992296038888</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02271605582767624</v>
+        <v>0.9606009835152931</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.844992296038888</v>
+        <v>1.484899313148423</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9606009835152931</v>
+        <v>28</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.484899313148423</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4728105291132016</v>
       </c>
     </row>
@@ -2290,72 +2170,66 @@
         <v>9.054762685918536e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.909194105109059</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.08149038274514231</v>
+        <v>6.816426098189536e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>0.01612938127720867</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.816426098189536e-06</v>
+        <v>0.2172067784607419</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.01612938127720867</v>
+        <v>0.04743814682294474</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2172067784607419</v>
+        <v>1.877192933341538</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04743814682294474</v>
+        <v>1.985774490839513</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.878399105431924</v>
+        <v>3.78668198951159</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.985774490839513</v>
+        <v>7.082782451588752e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.78668198951159</v>
+        <v>71219357.10132514</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>7.082782451588752e-15</v>
+        <v>1.67055666415195e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>71219357.10132514</v>
+        <v>35.92526666967336</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.67055666415195e-06</v>
+        <v>0.0001819503762316295</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>35.92526666967336</v>
+        <v>9.804252910040855</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001819503762316295</v>
+        <v>1.400528371031403</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.804252910040855</v>
+        <v>0.01748968426847396</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.400528371031403</v>
+        <v>2.858804698009626</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01748968426847396</v>
+        <v>0.9603743675301377</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.858804698009626</v>
+        <v>1.49637031435588</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9603743675301377</v>
+        <v>28</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.49637031435588</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2937542999058993</v>
       </c>
     </row>
@@ -2370,72 +2244,66 @@
         <v>9.064988774580429e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.8650470055109137</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.1460937674614313</v>
+        <v>6.817764743324807e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>0.01294134055131058</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.817764743324807e-06</v>
+        <v>0.2164170114569418</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01294134055131058</v>
+        <v>0.04700105097862965</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2164170114569418</v>
+        <v>1.873457351060556</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04700105097862965</v>
+        <v>2.029590348150349</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.871855471778278</v>
+        <v>3.650898995514673</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.029590348150349</v>
+        <v>7.619420367940139e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.650898995514673</v>
+        <v>64428603.79603188</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>7.619420367940139e-15</v>
+        <v>1.84161803628794e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>64428603.79603188</v>
+        <v>31.62855672299168</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.84161803628794e-06</v>
+        <v>0.0001672062337539944</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>31.62855672299168</v>
+        <v>10.6657166697466</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001672062337539944</v>
+        <v>1.113176289395144</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.6657166697466</v>
+        <v>0.01902096515600602</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.113176289395144</v>
+        <v>2.659430741930621</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01902096515600602</v>
+        <v>0.9598555696931997</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.659430741930621</v>
+        <v>1.507397047133775</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9598555696931997</v>
+        <v>28</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.507397047133775</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2349758245334512</v>
       </c>
     </row>
@@ -2450,72 +2318,66 @@
         <v>9.075500901477409e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.8328065184258395</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.1934981159960336</v>
+        <v>6.818693160555918e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>0.007177327884477202</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.818693160555918e-06</v>
+        <v>0.2149585654992511</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.007177327884477202</v>
+        <v>0.0462526808577531</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2149585654992511</v>
+        <v>1.870686572717841</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0462526808577531</v>
+        <v>2.008507759140366</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.866012059052499</v>
+        <v>3.61414690618278</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.008507759140366</v>
+        <v>7.77517132622222e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.61414690618278</v>
+        <v>62881980.95801947</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.77517132622222e-15</v>
+        <v>1.886402257711994e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>62881980.95801947</v>
+        <v>30.7441433880397</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.886402257711994e-06</v>
+        <v>0.0001717237110844139</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>30.7441433880397</v>
+        <v>10.98912424623007</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001717237110844139</v>
+        <v>1.102559604295928</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.98912424623007</v>
+        <v>0.02073750160748084</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.102559604295928</v>
+        <v>2.47202083998679</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02073750160748084</v>
+        <v>0.9602886228954363</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.47202083998679</v>
+        <v>1.504943271683449</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9602886228954363</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.504943271683449</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2177452955773538</v>
       </c>
     </row>
@@ -2530,72 +2392,66 @@
         <v>9.080663196647356e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.8212825921140103</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.2113079691257171</v>
+        <v>6.819009066066193e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.0004638826810981144</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.819009066066193e-06</v>
+        <v>0.2114960549612671</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0004638826810981144</v>
+        <v>0.04472015850149232</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2114960549612671</v>
+        <v>1.864395553193715</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04472015850149232</v>
+        <v>1.964411855598331</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.859117839577362</v>
+        <v>3.610149820118267</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.964411855598331</v>
+        <v>7.792397887442295e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.610149820118267</v>
+        <v>63680900.10726079</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.792397887442295e-15</v>
+        <v>1.861836443120576e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>63680900.10726079</v>
+        <v>31.60017637961635</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.861836443120576e-06</v>
+        <v>0.0001710824194881421</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>31.60017637961635</v>
+        <v>10.06831970451094</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001710824194881421</v>
+        <v>1.171375661221135</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.06831970451094</v>
+        <v>0.01734280649696903</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.171375661221135</v>
+        <v>2.645428339377036</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01734280649696903</v>
+        <v>0.9586981549004818</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.645428339377036</v>
+        <v>1.522021797522513</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9586981549004818</v>
+        <v>14</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.522021797522513</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2115822974283019</v>
       </c>
     </row>
@@ -2610,72 +2466,66 @@
         <v>9.065299187557217e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.8383154526498799</v>
+        <v>3.204148546917907e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.1770619136704297</v>
+        <v>6.818559536857598e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.204148546917907e-07</v>
+        <v>-0.009596103410928817</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.818559536857598e-06</v>
+        <v>0.2036933922220658</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.009596103410928817</v>
+        <v>0.04156571639743911</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2036933922220658</v>
+        <v>1.861174288578695</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04156571639743911</v>
+        <v>1.933011715244475</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.855361562646704</v>
+        <v>3.571634774236673</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.933011715244475</v>
+        <v>7.961364084371644e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.571634774236673</v>
+        <v>63091927.79184844</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.961364084371644e-15</v>
+        <v>1.880321354843181e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>63091927.79184844</v>
+        <v>31.6909370282887</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.880321354843181e-06</v>
+        <v>0.0001950699949464125</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>31.6909370282887</v>
+        <v>9.011597997295349</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001950699949464125</v>
+        <v>1.520635566323405</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.011597997295349</v>
+        <v>0.01584141941314348</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.520635566323405</v>
+        <v>2.733963309184476</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01584141941314348</v>
+        <v>0.9595371141986199</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.733963309184476</v>
+        <v>1.528646663338873</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9595371141986199</v>
+        <v>14</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.528646663338873</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.199360918524005</v>
       </c>
     </row>
@@ -3052,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.581921505066926</v>
+        <v>1.504305255493855</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.253303768908345</v>
@@ -3141,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.579160162299053</v>
+        <v>1.50366428284486</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.135781266797893</v>
@@ -3230,7 +3080,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570765060076093</v>
+        <v>1.498280685634447</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.084255694698555</v>
@@ -3319,7 +3169,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.5652104143249</v>
+        <v>1.492176936804275</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.867907861960103</v>
@@ -3408,7 +3258,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.569486116243138</v>
+        <v>1.485338538863772</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.956955488168479</v>
@@ -3497,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.398117331465345</v>
+        <v>1.347751548326307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.586711729821867</v>
@@ -3586,7 +3436,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.468592495057609</v>
+        <v>1.421679506715246</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.489626884608445</v>
@@ -3675,7 +3525,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.406039886096748</v>
+        <v>1.317967463764291</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.681058637528616</v>
@@ -3764,7 +3614,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.381195383664327</v>
+        <v>1.301342253394434</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.685105162618607</v>
@@ -3853,7 +3703,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.381657187290613</v>
+        <v>1.301587692683429</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.686494381166092</v>
@@ -3942,7 +3792,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.381179517695486</v>
+        <v>1.300312538261343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.688221703808279</v>
@@ -4031,7 +3881,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.37980985443736</v>
+        <v>1.297902033773554</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.688766587751401</v>
@@ -4120,7 +3970,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.378930035040934</v>
+        <v>1.297273480568898</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.687920202362364</v>
@@ -4209,7 +4059,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.378433219454729</v>
+        <v>1.296793032458899</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.691330364713027</v>
@@ -4298,7 +4148,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.379310759135145</v>
+        <v>1.29835489394832</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.695865060594117</v>
@@ -4387,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.378344406270289</v>
+        <v>1.299330178874897</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.694496026643872</v>
@@ -4476,7 +4326,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.376440413071883</v>
+        <v>1.296188241519034</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.696363095186705</v>
@@ -4565,7 +4415,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.375933722281109</v>
+        <v>1.295513150255378</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.694652997390645</v>
@@ -4654,7 +4504,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.378050939987187</v>
+        <v>1.297723283884853</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.697226057929424</v>
@@ -4743,7 +4593,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.377957438299987</v>
+        <v>1.298049133009872</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.686821266643325</v>
@@ -4832,7 +4682,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.425070291121061</v>
+        <v>1.331683014774519</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.638402799220564</v>
@@ -4921,7 +4771,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492182230372846</v>
+        <v>1.372810595416205</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.510902740626981</v>
@@ -5010,7 +4860,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.495143211727495</v>
+        <v>1.431544055303729</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.977867367438103</v>
@@ -5099,7 +4949,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.539480362889011</v>
+        <v>1.465124124039615</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.828764692826294</v>
@@ -5188,7 +5038,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.528178176012924</v>
+        <v>1.45786166606432</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.1627674752449</v>
@@ -5277,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.509107957386477</v>
+        <v>1.450062190220897</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.084833662146732</v>
@@ -5366,7 +5216,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.508686165950621</v>
+        <v>1.451482944340327</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.788522510457698</v>
@@ -5455,7 +5305,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.515824892148091</v>
+        <v>1.455660095465435</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.890771348903697</v>
@@ -5544,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.52205454835755</v>
+        <v>1.45887245688061</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.869933595479064</v>
@@ -5633,7 +5483,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.515069962032548</v>
+        <v>1.448630106130546</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.676186877904133</v>
@@ -5722,7 +5572,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.513755542503012</v>
+        <v>1.443579421763843</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.874800185408838</v>
@@ -5811,7 +5661,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.511325283824237</v>
+        <v>1.443743463373645</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.173488502956514</v>
@@ -5900,7 +5750,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.520270091495338</v>
+        <v>1.445320006933297</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.38566913555017</v>
@@ -5989,7 +5839,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520225760037449</v>
+        <v>1.43800426644876</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.29841489971448</v>
@@ -6078,7 +5928,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.523223683910204</v>
+        <v>1.440804941906584</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.319824872274464</v>
@@ -6167,7 +6017,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.529749080015203</v>
+        <v>1.43863710612272</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.310165066686934</v>
@@ -6256,7 +6106,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525181794078644</v>
+        <v>1.437023773721896</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.313597947286662</v>
@@ -6345,7 +6195,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.523423091960256</v>
+        <v>1.434396208589947</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.372996470991217</v>
@@ -6434,7 +6284,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530416826485089</v>
+        <v>1.442176165799473</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.259807276253071</v>
@@ -6523,7 +6373,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.539759365277512</v>
+        <v>1.438534677684301</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.458406198261318</v>
@@ -6612,7 +6462,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.565604142683782</v>
+        <v>1.456021172686082</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.223878400637391</v>
@@ -6701,7 +6551,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.571899375452093</v>
+        <v>1.459259256430558</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.281067723113719</v>
@@ -6790,7 +6640,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564370621728294</v>
+        <v>1.451678030225687</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.293657802171313</v>
@@ -6879,7 +6729,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565647455163502</v>
+        <v>1.450062162857918</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.383525208584378</v>
@@ -6968,7 +6818,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.55836879417459</v>
+        <v>1.448501878740126</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.308101171396792</v>
@@ -7057,7 +6907,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554633020296397</v>
+        <v>1.451770213088262</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.225973702235883</v>
@@ -7146,7 +6996,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.566060940475795</v>
+        <v>1.462582796508824</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.746172542285692</v>
@@ -7235,7 +7085,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561763774379674</v>
+        <v>1.465150909575631</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.380436443952973</v>
@@ -7324,7 +7174,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.558044014614711</v>
+        <v>1.468717341221285</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.706518586136232</v>
@@ -7413,7 +7263,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.559311418677706</v>
+        <v>1.468086819490467</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.218418503475866</v>
@@ -7502,7 +7352,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.560748633107936</v>
+        <v>1.476149212367681</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.071300040998345</v>
@@ -7591,7 +7441,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.565068135913649</v>
+        <v>1.480495078647571</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.993424709502876</v>
@@ -7680,7 +7530,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.560159907437469</v>
+        <v>1.477275989703602</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.938835587467603</v>
@@ -7769,7 +7619,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.55995684900219</v>
+        <v>1.478312348706772</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.138815519413315</v>
@@ -7858,7 +7708,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.565810193554062</v>
+        <v>1.496129689446736</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.994133934655582</v>
@@ -7947,7 +7797,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.56691449152289</v>
+        <v>1.49017161224715</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.91276731977642</v>
@@ -8036,7 +7886,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.567938167230948</v>
+        <v>1.495530526243739</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.101353894867592</v>
@@ -8125,7 +7975,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.585436183819846</v>
+        <v>1.504873880378444</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.94063522986317</v>
@@ -8214,7 +8064,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.5693222250996</v>
+        <v>1.492343450285951</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.305090264557908</v>
@@ -8303,7 +8153,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.579004128802622</v>
+        <v>1.502988480425955</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.703693890900795</v>
@@ -8392,7 +8242,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588107905116694</v>
+        <v>1.506684894204065</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.01892997849211</v>
@@ -8481,7 +8331,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.591576272100102</v>
+        <v>1.50883400154811</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.210557188847772</v>
@@ -8570,7 +8420,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.600682192200064</v>
+        <v>1.519848021301023</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.268479241627039</v>
@@ -8659,7 +8509,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.604283294227742</v>
+        <v>1.519356052386348</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.410934880276754</v>
@@ -8748,7 +8598,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.597641128581712</v>
+        <v>1.517209916412917</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.24882315094575</v>
@@ -8837,7 +8687,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.60906536217556</v>
+        <v>1.524816548972064</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.534755833366482</v>
@@ -8926,7 +8776,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.616574221493718</v>
+        <v>1.533304335981287</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.336108769715575</v>
@@ -9015,7 +8865,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.619209226327922</v>
+        <v>1.532219047182242</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.463457428335569</v>
@@ -9301,7 +9151,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.560123859603916</v>
+        <v>1.486080755676071</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.884733280328437</v>
@@ -9390,7 +9240,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.568251168590125</v>
+        <v>1.493370535699375</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.818629330988443</v>
@@ -9479,7 +9329,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.553350428015201</v>
+        <v>1.481350305841672</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.827643478022495</v>
@@ -9568,7 +9418,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.545099343306728</v>
+        <v>1.47671237825886</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.740335015623112</v>
@@ -9657,7 +9507,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.559944216184734</v>
+        <v>1.483601405559043</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.937598256660089</v>
@@ -9746,7 +9596,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.406586270296416</v>
+        <v>1.361454606057713</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.645327648502604</v>
@@ -9835,7 +9685,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.471571684720208</v>
+        <v>1.429996682855138</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.518661206720576</v>
@@ -9924,7 +9774,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411754655515154</v>
+        <v>1.328235779138845</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.709035667728621</v>
@@ -10013,7 +9863,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.387242288906161</v>
+        <v>1.313100906549945</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.71341030979878</v>
@@ -10102,7 +9952,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.385804202781143</v>
+        <v>1.310409739023564</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.712191470363825</v>
@@ -10191,7 +10041,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.382892920344889</v>
+        <v>1.306200412221951</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.713882512559421</v>
@@ -10280,7 +10130,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.382013559020381</v>
+        <v>1.304791031717539</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.704798604895539</v>
@@ -10369,7 +10219,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.380216083156561</v>
+        <v>1.303090160095113</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.713606453413996</v>
@@ -10458,7 +10308,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.378213273573141</v>
+        <v>1.301901249599744</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.712038013535149</v>
@@ -10547,7 +10397,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.377563747629881</v>
+        <v>1.302079755857168</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.710317853276969</v>
@@ -10636,7 +10486,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.377349737964098</v>
+        <v>1.303751177788853</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.715379864117957</v>
@@ -10725,7 +10575,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.373744847465554</v>
+        <v>1.29998526368521</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.713079853362858</v>
@@ -10814,7 +10664,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.37490633029789</v>
+        <v>1.301373121629587</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.71762392642181</v>
@@ -10903,7 +10753,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.376373834406177</v>
+        <v>1.301877712419315</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.711920296128767</v>
@@ -10992,7 +10842,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.37599460452876</v>
+        <v>1.300983044065354</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.702958281543073</v>
@@ -11081,7 +10931,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.420816992991678</v>
+        <v>1.335542031458734</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.651167714666346</v>
@@ -11170,7 +11020,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480359344821568</v>
+        <v>1.369519931558281</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.528411836697963</v>
@@ -11259,7 +11109,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485278430922844</v>
+        <v>1.4310561160524</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.956844767172799</v>
@@ -11348,7 +11198,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.522398193578238</v>
+        <v>1.455757105661309</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.720384328255256</v>
@@ -11437,7 +11287,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.519099210088248</v>
+        <v>1.463633680954884</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.130617852050518</v>
@@ -11526,7 +11376,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512107872013173</v>
+        <v>1.466809397325712</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.172678294169988</v>
@@ -11615,7 +11465,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.511868134183349</v>
+        <v>1.466845252752787</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.005277150542211</v>
@@ -11704,7 +11554,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.520157624919153</v>
+        <v>1.475417325100429</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.873400006375546</v>
@@ -11793,7 +11643,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532075967996547</v>
+        <v>1.482286440429228</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.829465971437584</v>
@@ -11882,7 +11732,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.529989521087494</v>
+        <v>1.477970793225339</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.787848120671526</v>
@@ -11971,7 +11821,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527573991682354</v>
+        <v>1.471603290549047</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.045607778132139</v>
@@ -12060,7 +11910,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.521830074377386</v>
+        <v>1.466751258704265</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.198033181587085</v>
@@ -12149,7 +11999,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.536246846157838</v>
+        <v>1.472185431285046</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.34910344707027</v>
@@ -12238,7 +12088,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534971163151067</v>
+        <v>1.464296899262395</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.306765221247163</v>
@@ -12327,7 +12177,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.535900225489091</v>
+        <v>1.468322268749393</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.34923402981636</v>
@@ -12416,7 +12266,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.542965945161791</v>
+        <v>1.465576890389784</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.305797499013921</v>
@@ -12505,7 +12355,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540380467190086</v>
+        <v>1.461486441814757</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.35771656571845</v>
@@ -12594,7 +12444,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.53125467450129</v>
+        <v>1.457403699393195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.368421975193915</v>
@@ -12683,7 +12533,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.532864918362538</v>
+        <v>1.464030828002752</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.291865398733905</v>
@@ -12772,7 +12622,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.543687560388523</v>
+        <v>1.464970132758001</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.622704898501579</v>
@@ -12861,7 +12711,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.547604964414486</v>
+        <v>1.467114367509757</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.287370336284788</v>
@@ -12950,7 +12800,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.554397454204222</v>
+        <v>1.473190679032526</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.394216860028943</v>
@@ -13039,7 +12889,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.549837525716747</v>
+        <v>1.46568358306897</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.316272403929444</v>
@@ -13128,7 +12978,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549183157258124</v>
+        <v>1.457592981971962</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.433503860890609</v>
@@ -13217,7 +13067,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.54537056840867</v>
+        <v>1.454453278032334</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.323849863446751</v>
@@ -13306,7 +13156,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537408784550502</v>
+        <v>1.453332237263429</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.337132162941733</v>
@@ -13395,7 +13245,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553879465493804</v>
+        <v>1.469932059852101</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.899571666120821</v>
@@ -13484,7 +13334,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.553395044939033</v>
+        <v>1.474163433891279</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.95482136820322</v>
@@ -13573,7 +13423,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.547222802678763</v>
+        <v>1.472290450925919</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.67872308540405</v>
@@ -13662,7 +13512,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.550427218941232</v>
+        <v>1.472545386675424</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.904184171558901</v>
@@ -13751,7 +13601,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.551446242223874</v>
+        <v>1.475722311205106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.920496731774934</v>
@@ -13840,7 +13690,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.557207312526861</v>
+        <v>1.483135794847997</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.99854638731995</v>
@@ -13929,7 +13779,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.557105892319082</v>
+        <v>1.479707767557427</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.998295357242672</v>
@@ -14018,7 +13868,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559890507137384</v>
+        <v>1.479513755994027</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.747303037234709</v>
@@ -14107,7 +13957,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.556418138987801</v>
+        <v>1.486688305933461</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.920733740612163</v>
@@ -14196,7 +14046,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.563442920665117</v>
+        <v>1.48441909360681</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.989771173336992</v>
@@ -14285,7 +14135,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.568462537567004</v>
+        <v>1.493736212648567</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.216315464396652</v>
@@ -14374,7 +14224,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.580519592615648</v>
+        <v>1.496355609765642</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.951733782952233</v>
@@ -14463,7 +14313,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567025572846562</v>
+        <v>1.494032858274914</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.198008177903088</v>
@@ -14552,7 +14402,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.56274326047718</v>
+        <v>1.492416741966303</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.971506381214503</v>
@@ -14641,7 +14491,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.574956720056461</v>
+        <v>1.496622603310788</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.242815170217517</v>
@@ -14730,7 +14580,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.571973969928178</v>
+        <v>1.49245907447933</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.168862518321467</v>
@@ -14819,7 +14669,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.576631285440928</v>
+        <v>1.497259201005271</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.104748987955496</v>
@@ -14908,7 +14758,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.59052469551612</v>
+        <v>1.50052088226619</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.304846477896024</v>
@@ -14997,7 +14847,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.584717356276931</v>
+        <v>1.498665945246026</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.699566984527421</v>
@@ -15086,7 +14936,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.593961144950864</v>
+        <v>1.508626514627905</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.396104226376153</v>
@@ -15175,7 +15025,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.59258831406183</v>
+        <v>1.515937196850708</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.406312497233815</v>
@@ -15264,7 +15114,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.605971676363486</v>
+        <v>1.528492989749155</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.68835585343532</v>
@@ -15550,7 +15400,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.492896591992861</v>
+        <v>1.431652095169983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.94157172968297</v>
@@ -15639,7 +15489,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.497805832768526</v>
+        <v>1.426135153887897</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.682103719364973</v>
@@ -15728,7 +15578,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.496300123340928</v>
+        <v>1.425549354532654</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.845519803362192</v>
@@ -15817,7 +15667,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501849119663383</v>
+        <v>1.425357810845737</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.847631019948118</v>
@@ -15906,7 +15756,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.499806362094288</v>
+        <v>1.419325371372055</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.983481399537134</v>
@@ -15995,7 +15845,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.430534509450165</v>
+        <v>1.383808581978688</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.720083247162268</v>
@@ -16084,7 +15934,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.506527122110208</v>
+        <v>1.466941174056014</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.582216674398507</v>
@@ -16173,7 +16023,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.435579637989107</v>
+        <v>1.354184603912</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.740639823697874</v>
@@ -16262,7 +16112,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.417394012092872</v>
+        <v>1.344613789135329</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.745454010755124</v>
@@ -16351,7 +16201,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.420016099535304</v>
+        <v>1.345962465270125</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.744031463505199</v>
@@ -16440,7 +16290,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.414864122363273</v>
+        <v>1.338491696908088</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.747842014153953</v>
@@ -16529,7 +16379,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.412336510980249</v>
+        <v>1.335839486818152</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.750447008700616</v>
@@ -16618,7 +16468,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.411259788305308</v>
+        <v>1.332837790751477</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.755793818300587</v>
@@ -16707,7 +16557,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.412895326918035</v>
+        <v>1.335796714059875</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.753044359920582</v>
@@ -16796,7 +16646,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410545000186216</v>
+        <v>1.336671883697699</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.755524741120351</v>
@@ -16885,7 +16735,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.406552887479145</v>
+        <v>1.335720973411622</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.755789326535445</v>
@@ -16974,7 +16824,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.405993538352068</v>
+        <v>1.336359844095057</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.748795399108561</v>
@@ -17063,7 +16913,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406575697944898</v>
+        <v>1.33695893536278</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.754156342304823</v>
@@ -17152,7 +17002,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.407328750665128</v>
+        <v>1.339328808855584</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.753374681197681</v>
@@ -17241,7 +17091,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.411605730673805</v>
+        <v>1.34391093801783</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.732314579729386</v>
@@ -17330,7 +17180,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.429368763780287</v>
+        <v>1.349661179209686</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.690893409739683</v>
@@ -17419,7 +17269,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.472872342276285</v>
+        <v>1.365136051508224</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.532659413893753</v>
@@ -17508,7 +17358,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.461192070639129</v>
+        <v>1.412866876158286</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.163525823277689</v>
@@ -17597,7 +17447,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.482400506718204</v>
+        <v>1.426347548288289</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.898183740624424</v>
@@ -17686,7 +17536,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.48738912071752</v>
+        <v>1.435488662303653</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.162873913726164</v>
@@ -17775,7 +17625,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.496450711979695</v>
+        <v>1.448962996415225</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.005284795544755</v>
@@ -17864,7 +17714,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.507133767318678</v>
+        <v>1.461483636441383</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.949216933294067</v>
@@ -17953,7 +17803,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511234717591873</v>
+        <v>1.47205126934244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.683993411039503</v>
@@ -18042,7 +17892,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.508299016909431</v>
+        <v>1.468507147551898</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.867837327665406</v>
@@ -18131,7 +17981,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.52357088311007</v>
+        <v>1.476527256833653</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.614892223175632</v>
@@ -18220,7 +18070,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.530394460218318</v>
+        <v>1.479067987668048</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.892391636678096</v>
@@ -18309,7 +18159,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534803286918301</v>
+        <v>1.480622662453319</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.375884339059203</v>
@@ -18398,7 +18248,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.548937925235423</v>
+        <v>1.478031982059137</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.720718712247272</v>
@@ -18487,7 +18337,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.539423464682278</v>
+        <v>1.461950673266599</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.714929902118068</v>
@@ -18576,7 +18426,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.539838748281351</v>
+        <v>1.458236167877514</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.884428702555076</v>
@@ -18665,7 +18515,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.540410305833774</v>
+        <v>1.456062415999604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.637787591435178</v>
@@ -18754,7 +18604,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.544237597090228</v>
+        <v>1.454578502221058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.577068513698462</v>
@@ -18843,7 +18693,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.534132952365422</v>
+        <v>1.443567970345029</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.559991839177629</v>
@@ -18932,7 +18782,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.52834283997974</v>
+        <v>1.44140728194881</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.428927415891221</v>
@@ -19021,7 +18871,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.517674361041985</v>
+        <v>1.434258386596687</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.867497839560593</v>
@@ -19110,7 +18960,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.517086782922059</v>
+        <v>1.435757789956372</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.511743864492873</v>
@@ -19199,7 +19049,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.524113520148658</v>
+        <v>1.44022403382643</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.708374267478602</v>
@@ -19288,7 +19138,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.52529672512539</v>
+        <v>1.439018249621763</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.661594858056654</v>
@@ -19377,7 +19227,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530048913610716</v>
+        <v>1.438281536277425</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.702331495065161</v>
@@ -19466,7 +19316,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.520053302458071</v>
+        <v>1.429795135863966</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.827924409351651</v>
@@ -19555,7 +19405,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.509707749141369</v>
+        <v>1.424925942924296</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.651909355722731</v>
@@ -19644,7 +19494,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.513577209123806</v>
+        <v>1.430426770568062</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.291773518318479</v>
@@ -19733,7 +19583,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.508371256651816</v>
+        <v>1.43700156346052</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.147036646706121</v>
@@ -19822,7 +19672,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.509093474083751</v>
+        <v>1.439496378012802</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.818196865640396</v>
@@ -19911,7 +19761,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.50053018727976</v>
+        <v>1.43233612910398</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.173758141278083</v>
@@ -20000,7 +19850,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.509775859309049</v>
+        <v>1.440512517126275</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.097631379386356</v>
@@ -20089,7 +19939,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.508136743030445</v>
+        <v>1.443273729216889</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.788569845277298</v>
@@ -20178,7 +20028,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.507351774590193</v>
+        <v>1.446261219463987</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.046726004679879</v>
@@ -20267,7 +20117,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.5170748877253</v>
+        <v>1.447626239493749</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.959270746615392</v>
@@ -20356,7 +20206,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.53484134573642</v>
+        <v>1.462168121371037</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.131380003610518</v>
@@ -20445,7 +20295,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.538073609329497</v>
+        <v>1.465849051598701</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.851957455622544</v>
@@ -20534,7 +20384,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.530770595596435</v>
+        <v>1.45926117059539</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.019697112207513</v>
@@ -20623,7 +20473,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.531098343506979</v>
+        <v>1.460574140278175</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.00664120531791</v>
@@ -20712,7 +20562,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.519340327977067</v>
+        <v>1.456237328037496</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.898919702251071</v>
@@ -20801,7 +20651,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.511714852024477</v>
+        <v>1.44819226837077</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.992232092099735</v>
@@ -20890,7 +20740,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.531711814648274</v>
+        <v>1.466086466405955</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.963960512038191</v>
@@ -20979,7 +20829,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.522771323907388</v>
+        <v>1.456115890376323</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.908794451266788</v>
@@ -21068,7 +20918,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.517462211001538</v>
+        <v>1.450862845336161</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.857576570009822</v>
@@ -21157,7 +21007,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.518849929073037</v>
+        <v>1.452992374594775</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.798913121366821</v>
@@ -21246,7 +21096,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.515855796411482</v>
+        <v>1.454180982097408</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.03865163684934</v>
@@ -21335,7 +21185,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.529052803173387</v>
+        <v>1.465907322307741</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.677681590341401</v>
@@ -21424,7 +21274,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.518544273386353</v>
+        <v>1.458403331451829</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.104417953584766</v>
@@ -21513,7 +21363,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.526936338885183</v>
+        <v>1.460378318129282</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.044155104917681</v>
@@ -21799,7 +21649,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.607908991389724</v>
+        <v>1.508928540463839</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.940468481953969</v>
@@ -21888,7 +21738,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.608909954442735</v>
+        <v>1.504062411040924</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.928239573311509</v>
@@ -21977,7 +21827,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.603439004720989</v>
+        <v>1.495929047791649</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.540941749345559</v>
@@ -22066,7 +21916,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.598597763161058</v>
+        <v>1.489117035958361</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.682280826645439</v>
@@ -22155,7 +22005,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.599996412477129</v>
+        <v>1.4835063704263</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.834799861914338</v>
@@ -22244,7 +22094,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.603570774400565</v>
+        <v>1.505366969662116</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.03378241127891</v>
@@ -22333,7 +22183,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.633176424987203</v>
+        <v>1.550212519464838</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.851604675538365</v>
@@ -22422,7 +22272,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.580515951076061</v>
+        <v>1.485148202089369</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.962618221207745</v>
@@ -22511,7 +22361,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.573625508688684</v>
+        <v>1.485642635921757</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.986346476321293</v>
@@ -22600,7 +22450,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578777728086001</v>
+        <v>1.485418716551619</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.9946732156209</v>
@@ -22689,7 +22539,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.573709735798129</v>
+        <v>1.477667030879424</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.999984761151251</v>
@@ -22778,7 +22628,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.567003917082219</v>
+        <v>1.472790644106392</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.012787102144518</v>
@@ -22867,7 +22717,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.567520016961521</v>
+        <v>1.476326465593763</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.003430318155312</v>
@@ -22956,7 +22806,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566575186628024</v>
+        <v>1.476690449654733</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.019903286210239</v>
@@ -23045,7 +22895,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565476089324752</v>
+        <v>1.483011296774795</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.018585464972656</v>
@@ -23134,7 +22984,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.569381155436844</v>
+        <v>1.48725957174887</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.019941929120377</v>
@@ -23223,7 +23073,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.570281028936122</v>
+        <v>1.488875198351143</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.998877226369112</v>
@@ -23312,7 +23162,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.565529057098095</v>
+        <v>1.485238693670582</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.005620370892227</v>
@@ -23401,7 +23251,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.567782179774885</v>
+        <v>1.48798521897774</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.010457169773896</v>
@@ -23490,7 +23340,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.572189528429768</v>
+        <v>1.496973002451092</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.022993392739741</v>
@@ -23579,7 +23429,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56607311110832</v>
+        <v>1.48732675518059</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.94584662048722</v>
@@ -23668,7 +23518,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.611906975913648</v>
+        <v>1.503326303172013</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.73285315782695</v>
@@ -23757,7 +23607,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.595572506187085</v>
+        <v>1.511770546493488</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.746713981921064</v>
@@ -23846,7 +23696,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584832684421165</v>
+        <v>1.500957488943371</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.233684122228413</v>
@@ -23935,7 +23785,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581621007207526</v>
+        <v>1.512421250420814</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.714897177104207</v>
@@ -24024,7 +23874,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.575126813391622</v>
+        <v>1.511219436708505</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.500045515658846</v>
@@ -24113,7 +23963,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581679329591316</v>
+        <v>1.518234868892843</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.021766607420326</v>
@@ -24202,7 +24052,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584166033682832</v>
+        <v>1.512060657785714</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.362321530437277</v>
@@ -24291,7 +24141,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.590490517808448</v>
+        <v>1.515834742510758</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.154114136525622</v>
@@ -24380,7 +24230,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.602430792299234</v>
+        <v>1.517719799970875</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.236866515599843</v>
@@ -24469,7 +24319,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.598858279948581</v>
+        <v>1.510684784544102</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.204786911112989</v>
@@ -24558,7 +24408,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595332127710931</v>
+        <v>1.506007014342631</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.59490540288878</v>
@@ -24647,7 +24497,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610883943479841</v>
+        <v>1.510821088721073</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.929614564197517</v>
@@ -24736,7 +24586,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614587336091754</v>
+        <v>1.50660511952053</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.844050766595546</v>
@@ -24825,7 +24675,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.604964236950204</v>
+        <v>1.496712369724456</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.249745421744819</v>
@@ -24914,7 +24764,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.619669952271121</v>
+        <v>1.501483867316845</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.06917370769177</v>
@@ -25003,7 +24853,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.619361928202763</v>
+        <v>1.508717985258753</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.941428449742685</v>
@@ -25092,7 +24942,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.620873575654413</v>
+        <v>1.511044594642106</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.733963502396558</v>
@@ -25181,7 +25031,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.638504076186091</v>
+        <v>1.528107674958485</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.646061573480212</v>
@@ -25270,7 +25120,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635559921259478</v>
+        <v>1.521005311646231</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.199101683599135</v>
@@ -25359,7 +25209,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639866940263545</v>
+        <v>1.525779723512817</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.949458230261757</v>
@@ -25448,7 +25298,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.645023313281944</v>
+        <v>1.525131548393977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.792243649274782</v>
@@ -25537,7 +25387,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644077750833321</v>
+        <v>1.517984655599881</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.011765767253195</v>
@@ -25626,7 +25476,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.646159185769178</v>
+        <v>1.517618620371511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.896786495690474</v>
@@ -25715,7 +25565,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.627240163761363</v>
+        <v>1.506947693065986</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.731890667191858</v>
@@ -25804,7 +25654,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618085406720556</v>
+        <v>1.504884319067651</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.119957706925683</v>
@@ -25893,7 +25743,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.627207346870878</v>
+        <v>1.519329229463076</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.889444157685302</v>
@@ -25982,7 +25832,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.616892008413208</v>
+        <v>1.52382880058574</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.594453196994901</v>
@@ -26071,7 +25921,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.619266622606572</v>
+        <v>1.523642155644366</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.572817878317361</v>
@@ -26160,7 +26010,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.631591720474041</v>
+        <v>1.532625852580166</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.687987236852614</v>
@@ -26249,7 +26099,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629229256152533</v>
+        <v>1.53251985986886</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.660791970520119</v>
@@ -26338,7 +26188,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.628856344414398</v>
+        <v>1.530754874096506</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.157613934543937</v>
@@ -26427,7 +26277,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624614243352053</v>
+        <v>1.52806857097287</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.691274072593089</v>
@@ -26516,7 +26366,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.626272489041981</v>
+        <v>1.521250657350894</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.720867040157455</v>
@@ -26605,7 +26455,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.635823281482553</v>
+        <v>1.532471270863027</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.802081150077642</v>
@@ -26694,7 +26544,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.638149652456871</v>
+        <v>1.529288283188905</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.674549019230323</v>
@@ -26783,7 +26633,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.641644054248216</v>
+        <v>1.54156762850434</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.427355489052893</v>
@@ -26872,7 +26722,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.645778709826069</v>
+        <v>1.548229761428182</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.499499851069282</v>
@@ -26961,7 +26811,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.638769113155741</v>
+        <v>1.54580357121421</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.665180482464903</v>
@@ -27050,7 +26900,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652538181057783</v>
+        <v>1.556843863343602</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.777016413988502</v>
@@ -27139,7 +26989,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.659237050547517</v>
+        <v>1.558512393157961</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.783212059510753</v>
@@ -27228,7 +27078,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.645978113167994</v>
+        <v>1.53988459746233</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.286352557648805</v>
@@ -27317,7 +27167,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.647732463011855</v>
+        <v>1.539836361622011</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.574528097229375</v>
@@ -27406,7 +27256,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.641123169782141</v>
+        <v>1.529910804682264</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.394057781554876</v>
@@ -27495,7 +27345,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.635156317691044</v>
+        <v>1.527679804513485</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.199342130243403</v>
@@ -27584,7 +27434,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.635959095351649</v>
+        <v>1.532834605034503</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.464776412684903</v>
@@ -27673,7 +27523,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.626414812353715</v>
+        <v>1.526800412332115</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.592815576297067</v>
@@ -27762,7 +27612,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.63940834911532</v>
+        <v>1.536058433551056</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.513953425772173</v>
@@ -28048,7 +27898,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568709376713298</v>
+        <v>1.520436490375986</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.207133079486954</v>
@@ -28137,7 +27987,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56317755084571</v>
+        <v>1.521407773506492</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.977673757046592</v>
@@ -28226,7 +28076,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.561236405174719</v>
+        <v>1.516972530720119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.030370060046744</v>
@@ -28315,7 +28165,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.551621982580398</v>
+        <v>1.506172701940326</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.138121794351656</v>
@@ -28404,7 +28254,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543942729798928</v>
+        <v>1.496876774771235</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.413951460042355</v>
@@ -28493,7 +28343,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.336911746292985</v>
+        <v>1.304224497939251</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.37113372692217</v>
@@ -28582,7 +28432,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.373889636896373</v>
+        <v>1.34995844774985</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.429759938635424</v>
@@ -28671,7 +28521,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.352733595683965</v>
+        <v>1.278482858142271</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.65200284113374</v>
@@ -28760,7 +28610,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.309336167743692</v>
+        <v>1.251614204684532</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.666494202230686</v>
@@ -28849,7 +28699,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.309007690728719</v>
+        <v>1.251556932307417</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.659109625780936</v>
@@ -28938,7 +28788,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.309306260398984</v>
+        <v>1.251543764278456</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.664785734722506</v>
@@ -29027,7 +28877,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.30834496008806</v>
+        <v>1.250856721135295</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.665180668500367</v>
@@ -29116,7 +28966,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.30917548625273</v>
+        <v>1.251008026325454</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.661430512755039</v>
@@ -29205,7 +29055,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.310098086814171</v>
+        <v>1.251452018406346</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.661901709231156</v>
@@ -29294,7 +29144,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.311025025838805</v>
+        <v>1.252471882959855</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.664459392577604</v>
@@ -29383,7 +29233,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.309818226655055</v>
+        <v>1.2522458966769</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.662277120589389</v>
@@ -29472,7 +29322,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.309002991584606</v>
+        <v>1.251262444715209</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.664985958520439</v>
@@ -29561,7 +29411,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.308212938200714</v>
+        <v>1.251201079731631</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.66334014700457</v>
@@ -29650,7 +29500,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.310141615332336</v>
+        <v>1.253124632656874</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.668717882680671</v>
@@ -29739,7 +29589,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.312667369550317</v>
+        <v>1.254821584379172</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.647777047564254</v>
@@ -29828,7 +29678,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.35058538565208</v>
+        <v>1.282968705820951</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.628371052384957</v>
@@ -29917,7 +29767,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.389607146077363</v>
+        <v>1.308984894005836</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.498024661251706</v>
@@ -30006,7 +29856,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.44058621300642</v>
+        <v>1.414250600215263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.591086028463457</v>
@@ -30095,7 +29945,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570882613271032</v>
+        <v>1.527270932809996</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.652482759700031</v>
@@ -30184,7 +30034,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.570915228305838</v>
+        <v>1.526768714283948</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.424501650085878</v>
@@ -30273,7 +30123,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580736888629612</v>
+        <v>1.536855816109576</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.846922873248634</v>
@@ -30362,7 +30212,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.576714060043908</v>
+        <v>1.530838863530041</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.549629963139145</v>
@@ -30451,7 +30301,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.583627847368621</v>
+        <v>1.53719578661511</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.313831222405637</v>
@@ -30540,7 +30390,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.576037488262489</v>
+        <v>1.534810940690114</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.257848386545069</v>
@@ -30629,7 +30479,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571075307489983</v>
+        <v>1.525289834882412</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.02307786106349</v>
@@ -30718,7 +30568,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572980335770215</v>
+        <v>1.521604795652173</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.33880592142986</v>
@@ -30807,7 +30657,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569867665003057</v>
+        <v>1.519729033287085</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.541951574151042</v>
@@ -30896,7 +30746,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.573892452470451</v>
+        <v>1.506903866587988</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.152942793176656</v>
@@ -30985,7 +30835,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573543235818998</v>
+        <v>1.502831011546888</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.14362909724912</v>
@@ -31074,7 +30924,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.576103811418144</v>
+        <v>1.503518777552169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.006256965148973</v>
@@ -31163,7 +31013,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577158946964217</v>
+        <v>1.50195228158925</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.795756595801154</v>
@@ -31252,7 +31102,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.570819997845796</v>
+        <v>1.497624718365627</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.101572120974625</v>
@@ -31341,7 +31191,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.561197408886708</v>
+        <v>1.494577299981271</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.149118853027845</v>
@@ -31430,7 +31280,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5554049809051</v>
+        <v>1.485448199872257</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.030497514835704</v>
@@ -31519,7 +31369,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.553157544575064</v>
+        <v>1.4793550041242</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.052231519735745</v>
@@ -31608,7 +31458,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552695042259083</v>
+        <v>1.479975283423419</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.738721931382683</v>
@@ -31697,7 +31547,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.564476622346245</v>
+        <v>1.491615893475736</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.17210200456062</v>
@@ -31786,7 +31636,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568580665799968</v>
+        <v>1.486883430600413</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.090689119719307</v>
@@ -31875,7 +31725,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572530506647513</v>
+        <v>1.486927178899689</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.061992804732605</v>
@@ -31964,7 +31814,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.556995838697587</v>
+        <v>1.479509635446245</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.901435584347643</v>
@@ -32053,7 +31903,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.538288141003797</v>
+        <v>1.473045901210613</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.760541107643895</v>
@@ -32142,7 +31992,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.550100605308581</v>
+        <v>1.480531798997491</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.673352275251105</v>
@@ -32231,7 +32081,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.558189520037222</v>
+        <v>1.50074142583143</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.139904791998788</v>
@@ -32320,7 +32170,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.541458285889136</v>
+        <v>1.482617181850709</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.798906606829113</v>
@@ -32409,7 +32259,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.54995883896645</v>
+        <v>1.482924035719592</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.045795482112579</v>
@@ -32498,7 +32348,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.550862997757191</v>
+        <v>1.484255583501303</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.780973987780958</v>
@@ -32587,7 +32437,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.568552287586017</v>
+        <v>1.500209678994646</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.874673210178563</v>
@@ -32676,7 +32526,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.566027765390472</v>
+        <v>1.500923635207219</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.842719997951824</v>
@@ -32765,7 +32615,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.586831505106267</v>
+        <v>1.519944218336633</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.898343686427714</v>
@@ -32854,7 +32704,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.597006111022129</v>
+        <v>1.533378838569196</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.10971484915311</v>
@@ -32943,7 +32793,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.608128939738121</v>
+        <v>1.536491655797574</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.956506294230314</v>
@@ -33032,7 +32882,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.609868338409001</v>
+        <v>1.536440715775435</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.017774629953269</v>
@@ -33121,7 +32971,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.619250447233099</v>
+        <v>1.545739076376327</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.138088277005524</v>
@@ -33210,7 +33060,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.612705486989662</v>
+        <v>1.53832049120085</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.986533481291478</v>
@@ -33299,7 +33149,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.630341446500973</v>
+        <v>1.553870800876692</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.176507633541897</v>
@@ -33388,7 +33238,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.655602246714751</v>
+        <v>1.569432731123859</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.477823784455343</v>
@@ -33477,7 +33327,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.655666435665435</v>
+        <v>1.568327078552215</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.3332671256502</v>
@@ -33566,7 +33416,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.658464578028505</v>
+        <v>1.576100788260772</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.528009692646971</v>
@@ -33655,7 +33505,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.669075293671406</v>
+        <v>1.586789991882789</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.755158499526273</v>
@@ -33744,7 +33594,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.667111690238836</v>
+        <v>1.590577980855174</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.596441732629594</v>
@@ -33833,7 +33683,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.663327416278623</v>
+        <v>1.584786647611884</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.759386846502188</v>
@@ -33922,7 +33772,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.661926348889919</v>
+        <v>1.578525894402854</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.251965192516962</v>
@@ -34011,7 +33861,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.674535698992176</v>
+        <v>1.586816350968839</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.521948066900668</v>
@@ -34297,7 +34147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.562791500668242</v>
+        <v>1.545005926593766</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.939749803517625</v>
@@ -34386,7 +34236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56691340269209</v>
+        <v>1.545109240088158</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.758292001482589</v>
@@ -34475,7 +34325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545545850246848</v>
+        <v>1.526395517069423</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.799483816703473</v>
@@ -34564,7 +34414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544758981990135</v>
+        <v>1.522876727724325</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.895527386296144</v>
@@ -34653,7 +34503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.537502273348654</v>
+        <v>1.515982608347321</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.842306483152263</v>
@@ -34742,7 +34592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.442710966243357</v>
+        <v>1.428011812437198</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.653907170236811</v>
@@ -34831,7 +34681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.447785379219527</v>
+        <v>1.440427547528433</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.574678513188679</v>
@@ -34920,7 +34770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.403312124304361</v>
+        <v>1.338084910712034</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.739848506152945</v>
@@ -35009,7 +34859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.380892241325632</v>
+        <v>1.322451839232774</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.744992844541501</v>
@@ -35098,7 +34948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.37857843405594</v>
+        <v>1.32015977040652</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.747188563356025</v>
@@ -35187,7 +35037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.382563549585894</v>
+        <v>1.320302672782507</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.748604671360848</v>
@@ -35276,7 +35126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.38497960769135</v>
+        <v>1.322805263599756</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.736261617320274</v>
@@ -35365,7 +35215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.382698461883954</v>
+        <v>1.319132940414695</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.74597540411651</v>
@@ -35454,7 +35304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.379697501258532</v>
+        <v>1.315932926639019</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.746520960982083</v>
@@ -35543,7 +35393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.378742197910338</v>
+        <v>1.316262445757871</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.745586085512248</v>
@@ -35632,7 +35482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.377516778925354</v>
+        <v>1.315451347603015</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.747634667441026</v>
@@ -35721,7 +35571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.377857044939381</v>
+        <v>1.316730079712189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.745887606533239</v>
@@ -35810,7 +35660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.385748481463693</v>
+        <v>1.32419941182263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.751385775359684</v>
@@ -35899,7 +35749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.388214168057307</v>
+        <v>1.327524163680817</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.749068469783687</v>
@@ -35988,7 +35838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.393997471566431</v>
+        <v>1.332318082676919</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.747522591607891</v>
@@ -36077,7 +35927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.431606571133343</v>
+        <v>1.358480321499079</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.636811079870108</v>
@@ -36166,7 +36016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51831626511074</v>
+        <v>1.418315641520072</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.57365229745717</v>
@@ -36255,7 +36105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.571971338143513</v>
+        <v>1.540329993384769</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.084844703278915</v>
@@ -36344,7 +36194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.610374287920967</v>
+        <v>1.570624556991867</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.166064337151665</v>
@@ -36433,7 +36283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.624701451047057</v>
+        <v>1.588361488206669</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.044740161560935</v>
@@ -36522,7 +36372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608648854851023</v>
+        <v>1.576946094712152</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.062631259112816</v>
@@ -36611,7 +36461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.601071774116302</v>
+        <v>1.571863715548241</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.872724781202874</v>
@@ -36700,7 +36550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.619932097497596</v>
+        <v>1.592436884273702</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.733605683107572</v>
@@ -36789,7 +36639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630622004855819</v>
+        <v>1.606914686690234</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.79449591352773</v>
@@ -36878,7 +36728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635323254192362</v>
+        <v>1.611782713235665</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.739043655323254</v>
@@ -36967,7 +36817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.648465678113084</v>
+        <v>1.624345573719074</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.977210413068961</v>
@@ -37056,7 +36906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.652895744330612</v>
+        <v>1.630574093992219</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.513076497767401</v>
@@ -37145,7 +36995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.649286227408302</v>
+        <v>1.614758494423514</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.708224770669495</v>
@@ -37234,7 +37084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634176460509152</v>
+        <v>1.599261305672635</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.798173476216927</v>
@@ -37323,7 +37173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.625325729745886</v>
+        <v>1.591143725498274</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.803390833323269</v>
@@ -37412,7 +37262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.633134003429072</v>
+        <v>1.594911958132862</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.706547280548453</v>
@@ -37501,7 +37351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628943693071901</v>
+        <v>1.593024944362452</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.580607136254649</v>
@@ -37590,7 +37440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628383009985303</v>
+        <v>1.5911590166952</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.609646002191459</v>
@@ -37679,7 +37529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620826646837211</v>
+        <v>1.589896662593008</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.568403365466087</v>
@@ -37768,7 +37618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607845671964879</v>
+        <v>1.578683000141225</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.743872602350687</v>
@@ -37857,7 +37707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619073740980895</v>
+        <v>1.588851234408004</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.701539622508271</v>
@@ -37946,7 +37796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631261411091709</v>
+        <v>1.595539946615925</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.658921341912994</v>
@@ -38035,7 +37885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.631391831721925</v>
+        <v>1.597566506614825</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.792133239203448</v>
@@ -38124,7 +37974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.632571722862341</v>
+        <v>1.592977750563937</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.625704338977292</v>
@@ -38213,7 +38063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.614422297760256</v>
+        <v>1.570786527114218</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.707264803357939</v>
@@ -38302,7 +38152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.602254650515533</v>
+        <v>1.561713112423772</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.60082365692244</v>
@@ -38391,7 +38241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.602924276835252</v>
+        <v>1.56274117226536</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.299320063546286</v>
@@ -38480,7 +38330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.596692996156895</v>
+        <v>1.567064014623308</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.557140685758821</v>
@@ -38569,7 +38419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592412350810596</v>
+        <v>1.56557544307416</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.427364193620303</v>
@@ -38658,7 +38508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596346463330809</v>
+        <v>1.571167477875324</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.299142423455816</v>
@@ -38747,7 +38597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.59909012572254</v>
+        <v>1.575737737004516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.092680709940213</v>
@@ -38836,7 +38686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.602377215608699</v>
+        <v>1.5777530724797</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.25545299668378</v>
@@ -38925,7 +38775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.601093539757722</v>
+        <v>1.579278202285205</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.031507898913932</v>
@@ -39014,7 +38864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.609668293285979</v>
+        <v>1.578906242840046</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.170426869968453</v>
@@ -39103,7 +38953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.625339431776262</v>
+        <v>1.591162145129246</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.309425974190548</v>
@@ -39192,7 +39042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.621257384910918</v>
+        <v>1.588523647603586</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.168541017504825</v>
@@ -39281,7 +39131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.626343598426566</v>
+        <v>1.597103816534733</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.886791008798529</v>
@@ -39370,7 +39220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.630377205884662</v>
+        <v>1.590156104308198</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.18539083825086</v>
@@ -39459,7 +39309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.63477319085723</v>
+        <v>1.60022109165685</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.98273526266629</v>
@@ -39548,7 +39398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.641354583993238</v>
+        <v>1.611531010547379</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.991085245738953</v>
@@ -39637,7 +39487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.654093431508102</v>
+        <v>1.62030422946589</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.167452244408032</v>
@@ -39726,7 +39576,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.630969064990179</v>
+        <v>1.602231659859022</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.88093429113918</v>
@@ -39815,7 +39665,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.640607267376941</v>
+        <v>1.615028418566401</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.884363178697744</v>
@@ -39904,7 +39754,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.644245743496589</v>
+        <v>1.607048690025059</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.873474381719708</v>
@@ -39993,7 +39843,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.634897751409588</v>
+        <v>1.603567887053841</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.009548753782795</v>
@@ -40082,7 +39932,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.631867950411123</v>
+        <v>1.60118895821856</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.003934054656157</v>
@@ -40171,7 +40021,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.630903494307602</v>
+        <v>1.599297546568789</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.13108483088978</v>
@@ -40260,7 +40110,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.634232123605084</v>
+        <v>1.594584960750511</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.98962843038098</v>
